--- a/subjects/resources/1/it_phys/LR4.xlsx
+++ b/subjects/resources/1/it_phys/LR4.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
-    <t>ε</t>
-  </si>
-  <si>
-    <t>r</t>
+    <t>Формулы</t>
   </si>
   <si>
     <t>U</t>
@@ -28,30 +27,68 @@
     <t>P</t>
   </si>
   <si>
+    <t>Константы</t>
+  </si>
+  <si>
+    <t>ε</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
     <t>Pп</t>
   </si>
   <si>
     <t>η</t>
   </si>
   <si>
+    <t>ε-I*r</t>
+  </si>
+  <si>
+    <t>ε*I</t>
+  </si>
+  <si>
+    <t>ε*I-I^2*r</t>
+  </si>
+  <si>
+    <t>Pп/P</t>
+  </si>
+  <si>
+    <t>Решение</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>I</t>
   </si>
   <si>
-    <t>R</t>
+    <t>Графики</t>
+  </si>
+  <si>
+    <t>Вывод</t>
+  </si>
+  <si>
+    <t>а) С увеличением силы тока напряжение уменьшается</t>
+  </si>
+  <si>
+    <t>б) С увеличением силы тока мощность увеличивается</t>
+  </si>
+  <si>
+    <t>в) С увеличением силы тока мощность, выделяющаяся на нагрузке увеличивается</t>
+  </si>
+  <si>
+    <t>I0</t>
+  </si>
+  <si>
+    <t>г) С увеличением силы тока КПД уменьшается</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,14 +98,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -76,21 +114,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,8 +142,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -127,52 +178,1218 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6302011096836218E-2"/>
+          <c:y val="0.12923359580052493"/>
+          <c:w val="0.78167033656734464"/>
+          <c:h val="0.6686292213473316"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>U от I</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$11:$W$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>4.7619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4390243902439024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.639344262295082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2345679012345678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99009900990099009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82644628099173556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70921985815602839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6211180124223602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5524861878453039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49751243781094534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45248868778280543</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41493775933609961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38314176245210729</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35587188612099652</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33222591362126247</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3115264797507788</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2932551319648094</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2770083102493075</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26246719160104992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24937655860349128</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23752969121140144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22675736961451246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$12:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.47619047619047616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48780487804878048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49180327868852458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49382716049382713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49504950495049505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49586776859504134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49645390070921985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49689440993788819</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49723756906077349</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49751243781094528</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49773755656108598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49792531120331951</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49808429118773945</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49822064056939502</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49833887043189368</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49844236760124611</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49853372434017595</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49861495844875348</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49868766404199477</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49875311720698257</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49881235154394299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49886621315192742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="74122752"/>
+        <c:axId val="73636864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="74122752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73636864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="73636864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74122752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="000000"/>
+            </a:gs>
+            <a:gs pos="20000">
+              <a:srgbClr val="000040"/>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:srgbClr val="400040"/>
+            </a:gs>
+            <a:gs pos="75000">
+              <a:srgbClr val="8F0040"/>
+            </a:gs>
+            <a:gs pos="89999">
+              <a:srgbClr val="F27300"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFBF00"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>P от I</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$11:$W$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>4.7619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4390243902439024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.639344262295082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2345679012345678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99009900990099009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82644628099173556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70921985815602839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6211180124223602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5524861878453039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49751243781094534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45248868778280543</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41493775933609961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38314176245210729</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35587188612099652</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33222591362126247</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3115264797507788</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2932551319648094</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2770083102493075</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26246719160104992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24937655860349128</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23752969121140144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22675736961451246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$13:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2.3809523809523809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2195121951219512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81967213114754101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61728395061728392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49504950495049505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41322314049586778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3546099290780142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3105590062111801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27624309392265195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24875621890547267</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22624434389140272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2074688796680498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19157088122605365</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17793594306049826</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16611295681063123</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1557632398753894</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1466275659824047</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13850415512465375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13123359580052496</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12468827930174564</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11876484560570072</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11337868480725623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="64057728"/>
+        <c:axId val="64059264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="64057728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64059264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64059264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64057728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="000000"/>
+            </a:gs>
+            <a:gs pos="20000">
+              <a:srgbClr val="000040"/>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:srgbClr val="400040"/>
+            </a:gs>
+            <a:gs pos="75000">
+              <a:srgbClr val="8F0040"/>
+            </a:gs>
+            <a:gs pos="89999">
+              <a:srgbClr val="F27300"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFBF00"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5030183727034105E-2"/>
+          <c:y val="0.11829001307946875"/>
+          <c:w val="0.78055314960629918"/>
+          <c:h val="0.70903887850139136"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pп от I</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$11:$W$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>4.7619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4390243902439024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.639344262295082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2345679012345678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99009900990099009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82644628099173556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70921985815602839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6211180124223602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5524861878453039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49751243781094534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45248868778280543</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41493775933609961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38314176245210729</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35587188612099652</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33222591362126247</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3115264797507788</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2932551319648094</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2770083102493075</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26246719160104992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24937655860349128</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23752969121140144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22675736961451246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$14:$W$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2.2675736961451247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1897679952409279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80623488309594193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60966316110349028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49014802470346042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40980807321904245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35209496504199989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30863006828440259</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27471688898385277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24751862577658973</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22522061382854569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2066080129474355</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19083689317537911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17730271906384168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16556108652222382</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15527799613745982</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14619757312028622</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13812048710491787</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13088915066719026</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12437733596184104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1184827438346658</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11312159028388376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="53916032"/>
+        <c:axId val="64062976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="53916032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64062976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64062976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53916032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="000000"/>
+            </a:gs>
+            <a:gs pos="20000">
+              <a:srgbClr val="000040"/>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:srgbClr val="400040"/>
+            </a:gs>
+            <a:gs pos="75000">
+              <a:srgbClr val="8F0040"/>
+            </a:gs>
+            <a:gs pos="89999">
+              <a:srgbClr val="F27300"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFBF00"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>η от I</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$11:$W$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>4.7619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4390243902439024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.639344262295082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2345679012345678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99009900990099009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82644628099173556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70921985815602839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6211180124223602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5524861878453039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49751243781094534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45248868778280543</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41493775933609961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38314176245210729</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35587188612099652</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33222591362126247</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3115264797507788</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2932551319648094</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2770083102493075</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26246719160104992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24937655860349128</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23752969121140144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22675736961451246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$15:$W$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.95238095238095244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97560975609756095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98360655737704916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98765432098765427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99009900990099009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99173553719008267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9929078014184396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99378881987577639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99447513812154698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99502487562189057</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99547511312217196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99585062240663902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99616858237547889</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99644128113879005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99667774086378735</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9968847352024921</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99706744868035202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99722991689750695</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99737532808398954</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99750623441396513</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99762470308788598</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99773242630385484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="63921536"/>
+        <c:axId val="63951616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="63921536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63951616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="63951616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63921536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="000000"/>
+            </a:gs>
+            <a:gs pos="20000">
+              <a:srgbClr val="000040"/>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:srgbClr val="400040"/>
+            </a:gs>
+            <a:gs pos="75000">
+              <a:srgbClr val="8F0040"/>
+            </a:gs>
+            <a:gs pos="89999">
+              <a:srgbClr val="F27300"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFBF00"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -218,7 +1435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,10 +1467,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,7 +1501,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -461,222 +1676,718 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:23">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <f>B2/B3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.5</v>
       </c>
+      <c r="G10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="U10" s="1">
+        <v>2</v>
+      </c>
+      <c r="V10" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="11" spans="1:23">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <f>$B$2/($B$3+B$10)</f>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11:X11" si="0">$B$2/($B$3+C$10)</f>
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.639344262295082</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2345679012345678</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82644628099173556</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70921985815602839</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6211180124223602</v>
+      </c>
+      <c r="J11" s="1">
+        <f>$B$2/($B$3+J$10)</f>
+        <v>0.5524861878453039</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49751243781094534</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45248868778280543</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41493775933609961</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38314176245210729</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35587188612099652</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33222591362126247</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>$B$2/($B$3+Q$10)</f>
+        <v>0.3115264797507788</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2932551319648094</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2770083102493075</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26246719160104992</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24937655860349128</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23752969121140144</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22675736961451246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7">
-        <v>4</v>
-      </c>
-      <c r="G11" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7">
-        <f>$B$1/($B$2+B$11)</f>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" ref="C12:G12" si="0">$B$1/($B$2+C$11)</f>
+      <c r="B12" s="1">
+        <f>$B$2-B$11*$B$3</f>
         <v>0.47619047619047616</v>
       </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.24390243902439027</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.16393442622950821</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.1234567901234568</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="0"/>
-        <v>9.9009900990099015E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="7">
-        <f>$B$1-B$12*$B$2</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" ref="C13:G13" si="1">$B$1-C$12*$B$2</f>
-        <v>0.47619047619047616</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="1"/>
+      <c r="C12" s="1">
+        <f t="shared" ref="C12:X12" si="1">$B$2-C$11*$B$3</f>
         <v>0.48780487804878048</v>
       </c>
-      <c r="E13" s="7">
+      <c r="D12" s="1">
         <f t="shared" si="1"/>
         <v>0.49180327868852458</v>
       </c>
-      <c r="F13" s="7">
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>0.49382716049382713</v>
       </c>
-      <c r="G13" s="7">
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>0.49504950495049505</v>
       </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49586776859504134</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49645390070921985</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49689440993788819</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49723756906077349</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49751243781094528</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49773755656108598</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49792531120331951</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49808429118773945</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49822064056939502</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49833887043189368</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>$B$2-Q$11*$B$3</f>
+        <v>0.49844236760124611</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49853372434017595</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49861495844875348</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49868766404199477</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49875311720698257</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49881235154394299</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49886621315192742</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="7">
-        <f>$B$1*B$12</f>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" ref="C14:G15" si="2">$B$1*C$12</f>
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="D14" s="7">
+    <row r="13" spans="1:23">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <f>$B$2*B$11</f>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:X13" si="2">$B$2*C$11</f>
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>0.12195121951219513</v>
-      </c>
-      <c r="E14" s="7">
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>8.1967213114754106E-2</v>
-      </c>
-      <c r="F14" s="7">
+        <v>0.61728395061728392</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>6.1728395061728399E-2</v>
-      </c>
-      <c r="G14" s="7">
+        <v>0.49504950495049505</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="2"/>
-        <v>4.9504950495049507E-2</v>
+        <v>0.41322314049586778</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3546099290780142</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3105590062111801</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27624309392265195</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24875621890547267</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22624434389140272</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2074688796680498</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19157088122605365</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17793594306049826</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16611295681063123</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>$B$2*Q$11</f>
+        <v>0.1557632398753894</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1466275659824047</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13850415512465375</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13123359580052496</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12468827930174564</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11876484560570072</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11337868480725623</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="7">
-        <f>$B$1*B$12-B$12*B$12*$B$2</f>
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" ref="C15:G15" si="3">$B$1*C$12-C$12*C$12*$B$2</f>
-        <v>0.22675736961451246</v>
-      </c>
-      <c r="D15" s="7">
+    <row r="14" spans="1:23">
+      <c r="A14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <f>$B$2*B$11*(1-B11/$D$5)</f>
+        <v>2.2675736961451247</v>
+      </c>
+      <c r="C14" s="1">
+        <f>$B$2*C$11*(1-C11/$D$5)</f>
+        <v>1.1897679952409279</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:W14" si="3">$B$2*D$11*(1-D11/$D$5)</f>
+        <v>0.80623488309594193</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="3"/>
-        <v>0.11897679952409282</v>
-      </c>
-      <c r="E15" s="7">
+        <v>0.60966316110349028</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>8.0623488309594205E-2</v>
-      </c>
-      <c r="F15" s="7">
+        <v>0.49014802470346042</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="3"/>
-        <v>6.0966316110349035E-2</v>
-      </c>
-      <c r="G15" s="7">
+        <v>0.40980807321904245</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="3"/>
-        <v>4.901480247034605E-2</v>
+        <v>0.35209496504199989</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30863006828440259</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.27471688898385277</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.24751862577658973</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.22522061382854569</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.2066080129474355</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.19083689317537911</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.17730271906384168</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.16556108652222382</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15527799613745982</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14619757312028622</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13812048710491787</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13088915066719026</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12437733596184104</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1184827438346658</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11312159028388376</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+    <row r="15" spans="1:23">
+      <c r="A15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <f>B14/B13</f>
+        <v>0.95238095238095244</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:P15" si="4">C14/C13</f>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98360655737704916</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98765432098765427</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99173553719008267</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.9929078014184396</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99378881987577639</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99447513812154698</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99502487562189057</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99547511312217196</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99585062240663902</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99616858237547889</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99644128113879005</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99667774086378735</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>Q14/Q13</f>
+        <v>0.9968847352024921</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" ref="R15" si="5">R14/R13</f>
+        <v>0.99706744868035202</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" ref="S15" si="6">S14/S13</f>
+        <v>0.99722991689750695</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" ref="T15" si="7">T14/T13</f>
+        <v>0.99737532808398954</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" ref="U15" si="8">U14/U13</f>
+        <v>0.99750623441396513</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" ref="V15" si="9">V14/V13</f>
+        <v>0.99762470308788598</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" ref="W15" si="10">W14/W13</f>
+        <v>0.99773242630385484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="B16" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:F51"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>